--- a/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD824FEB-337C-450D-9B92-4F80FB17161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B23D95C-8BBC-44E0-8163-A2ECE22147FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D6817F4-64A2-4501-A42D-288CD12D347A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D8FCFB8-C571-43F0-8803-2310C8F9C2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="198">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>75,03%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
@@ -125,13 +125,13 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>12,99%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,74%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
@@ -140,13 +140,13 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>12,73%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>12,14%</t>
+    <t>13,11%</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
@@ -155,13 +155,13 @@
     <t>4,48%</t>
   </si>
   <si>
-    <t>21,82%</t>
+    <t>23,46%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>17,07%</t>
+    <t>18,91%</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
@@ -170,19 +170,19 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -191,307 +191,304 @@
     <t>62,87%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>70,86%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>24,97%</t>
+    <t>27,22%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>15,28%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>68,05%</t>
@@ -500,40 +497,37 @@
     <t>62,09%</t>
   </si>
   <si>
-    <t>73,44%</t>
+    <t>73,36%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -551,52 +545,52 @@
     <t>1,11%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>16,62%</t>
+    <t>17,25%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -605,37 +599,34 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE8468-6CFD-4D84-BA01-0B61588A668A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E13AEB-F4B9-4C3C-A44B-3917F4C3B804}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,10 +1848,10 @@
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1869,13 +1860,13 @@
         <v>8509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1881,13 @@
         <v>12771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -1905,13 +1896,13 @@
         <v>31545</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -1920,13 +1911,13 @@
         <v>44317</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1973,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1994,13 +1985,13 @@
         <v>20519</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2009,13 +2000,13 @@
         <v>41253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2024,13 +2015,13 @@
         <v>61771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2036,13 @@
         <v>3127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2060,10 +2051,10 @@
         <v>4506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>115</v>
@@ -2117,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2132,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2153,13 @@
         <v>2530</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2177,7 +2168,7 @@
         <v>2530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>125</v>
@@ -2285,7 +2276,7 @@
         <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2291,13 @@
         <v>999</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -2315,13 +2306,13 @@
         <v>15161</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2330,13 +2321,13 @@
         <v>16161</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2395,13 @@
         <v>86105</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>238</v>
@@ -2419,13 +2410,13 @@
         <v>195204</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>290</v>
@@ -2434,13 +2425,13 @@
         <v>281309</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2446,13 @@
         <v>8260</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2473,10 +2464,10 @@
         <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2485,13 +2476,13 @@
         <v>20630</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2497,13 @@
         <v>1312</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2527,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2536,13 +2527,13 @@
         <v>1312</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2572,10 +2563,10 @@
         <v>3196</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>28</v>
@@ -2587,13 +2578,13 @@
         <v>3196</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2599,13 @@
         <v>12008</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -2623,13 +2614,13 @@
         <v>16656</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>31</v>
@@ -2638,13 +2629,13 @@
         <v>28664</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2650,13 @@
         <v>5483</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -2674,13 +2665,13 @@
         <v>8973</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -2689,13 +2680,13 @@
         <v>14456</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2701,13 @@
         <v>13771</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -2725,13 +2716,13 @@
         <v>50472</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>70</v>
@@ -2740,13 +2731,13 @@
         <v>64243</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,7 +2793,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B23D95C-8BBC-44E0-8163-A2ECE22147FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90062B39-8C17-4AE2-A26A-0D9D8A795BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D8FCFB8-C571-43F0-8803-2310C8F9C2B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3340F1A1-7FFD-4803-9964-27DC7815A80D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E13AEB-F4B9-4C3C-A44B-3917F4C3B804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A79780B-1A2E-45A7-8EC7-EC26C838CBE2}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90062B39-8C17-4AE2-A26A-0D9D8A795BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60C261C-73F1-4F7E-989F-F27028938141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3340F1A1-7FFD-4803-9964-27DC7815A80D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{978F17AF-68BA-451D-BEE7-457FAAB5FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="198">
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="242">
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,562 +71,694 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1041,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A79780B-1A2E-45A7-8EC7-EC26C838CBE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320306E7-A738-41DE-B2A5-13F5149A07A0}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1159,10 +1291,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="D4" s="7">
-        <v>5726</v>
+        <v>396120</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1174,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>666</v>
       </c>
       <c r="I4" s="7">
-        <v>18936</v>
+        <v>377541</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1189,10 +1321,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>1167</v>
       </c>
       <c r="N4" s="7">
-        <v>24662</v>
+        <v>773661</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1210,10 +1342,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>18492</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1225,289 +1357,289 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>20762</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>666</v>
+        <v>3161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>666</v>
+        <v>5626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>10691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>738</v>
+        <v>7494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>738</v>
+        <v>18185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>5646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1132</v>
+        <v>1831</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>1132</v>
+        <v>7477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>96939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>3765</v>
+        <v>78578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>3765</v>
+        <v>175518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,102 +1648,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>5726</v>
+        <v>531154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>826</v>
       </c>
       <c r="I11" s="7">
-        <v>25236</v>
+        <v>471306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>1506</v>
       </c>
       <c r="N11" s="7">
-        <v>30962</v>
+        <v>1002460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>1347</v>
       </c>
       <c r="D12" s="7">
-        <v>59861</v>
+        <v>1369955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
-        <v>165</v>
+        <v>1912</v>
       </c>
       <c r="I12" s="7">
-        <v>135016</v>
+        <v>1448261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>200</v>
+        <v>3259</v>
       </c>
       <c r="N12" s="7">
-        <v>194877</v>
+        <v>2818216</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,304 +1752,304 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>5133</v>
+        <v>151822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>7865</v>
+        <v>46121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>12998</v>
+        <v>197943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1312</v>
+        <v>3633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>1312</v>
+        <v>7691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>62396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>7596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>69992</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>12008</v>
+        <v>90236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>11735</v>
+        <v>54870</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="N16" s="7">
-        <v>23743</v>
+        <v>145106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>4124</v>
+        <v>24022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>4385</v>
+        <v>8642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>8509</v>
+        <v>32664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>12771</v>
+        <v>219023</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="I18" s="7">
-        <v>31545</v>
+        <v>160559</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="N18" s="7">
-        <v>44317</v>
+        <v>379582</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,102 +2058,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>1874</v>
       </c>
       <c r="D19" s="7">
-        <v>95209</v>
+        <v>1921088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>233</v>
+        <v>2316</v>
       </c>
       <c r="I19" s="7">
-        <v>190546</v>
+        <v>1730106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
-        <v>296</v>
+        <v>4190</v>
       </c>
       <c r="N19" s="7">
-        <v>285755</v>
+        <v>3651194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>390</v>
       </c>
       <c r="D20" s="7">
-        <v>20519</v>
+        <v>385891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>702</v>
       </c>
       <c r="I20" s="7">
-        <v>41253</v>
+        <v>486077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
-        <v>60</v>
+        <v>1092</v>
       </c>
       <c r="N20" s="7">
-        <v>61771</v>
+        <v>871967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,304 +2162,304 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>3127</v>
+        <v>96247</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="I21" s="7">
-        <v>4506</v>
+        <v>60304</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="N21" s="7">
-        <v>7632</v>
+        <v>156550</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>12518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>2061</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>14579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>17652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>2530</v>
+        <v>9260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N23" s="7">
-        <v>2530</v>
+        <v>26912</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>21673</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>4183</v>
+        <v>20328</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>4183</v>
+        <v>42001</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>1359</v>
+        <v>13409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4845</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" s="7">
         <v>21</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3456</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
       <c r="N25" s="7">
-        <v>4816</v>
+        <v>18254</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>999</v>
+        <v>78547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I26" s="7">
-        <v>15161</v>
+        <v>72068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="N26" s="7">
-        <v>16161</v>
+        <v>150615</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2468,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>19</v>
+        <v>647</v>
       </c>
       <c r="D27" s="7">
-        <v>26004</v>
+        <v>625938</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
-        <v>80</v>
+        <v>943</v>
       </c>
       <c r="I27" s="7">
-        <v>71089</v>
+        <v>654943</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
-        <v>99</v>
+        <v>1590</v>
       </c>
       <c r="N27" s="7">
-        <v>97093</v>
+        <v>1280880</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,49 +2521,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>52</v>
+        <v>2238</v>
       </c>
       <c r="D28" s="7">
-        <v>86105</v>
+        <v>2151967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
-        <v>238</v>
+        <v>3280</v>
       </c>
       <c r="I28" s="7">
-        <v>195204</v>
+        <v>2311878</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
-        <v>290</v>
+        <v>5518</v>
       </c>
       <c r="N28" s="7">
-        <v>281309</v>
+        <v>4463844</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,304 +2572,304 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="D29" s="7">
-        <v>8260</v>
+        <v>266561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I29" s="7">
-        <v>12371</v>
+        <v>108695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="N29" s="7">
-        <v>20630</v>
+        <v>375255</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>1312</v>
+        <v>16952</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N30" s="7">
-        <v>1312</v>
+        <v>23501</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>82514</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I31" s="7">
-        <v>3196</v>
+        <v>20017</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="M31" s="7">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N31" s="7">
-        <v>3196</v>
+        <v>102530</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D32" s="7">
-        <v>12008</v>
+        <v>122600</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I32" s="7">
-        <v>16656</v>
+        <v>82692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="N32" s="7">
-        <v>28664</v>
+        <v>205292</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D33" s="7">
-        <v>5483</v>
+        <v>43077</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="H33" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I33" s="7">
-        <v>8973</v>
+        <v>15319</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="M33" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N33" s="7">
-        <v>14456</v>
+        <v>58396</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="D34" s="7">
-        <v>13771</v>
+        <v>394510</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
-        <v>59</v>
+        <v>486</v>
       </c>
       <c r="I34" s="7">
-        <v>50472</v>
+        <v>311206</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
-        <v>70</v>
+        <v>927</v>
       </c>
       <c r="N34" s="7">
-        <v>64243</v>
+        <v>705716</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,54 +2878,54 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>85</v>
+        <v>3201</v>
       </c>
       <c r="D35" s="7">
-        <v>126939</v>
+        <v>3078180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
-        <v>350</v>
+        <v>4085</v>
       </c>
       <c r="I35" s="7">
-        <v>286871</v>
+        <v>2856355</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
-        <v>435</v>
+        <v>7286</v>
       </c>
       <c r="N35" s="7">
-        <v>413810</v>
+        <v>5934535</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60C261C-73F1-4F7E-989F-F27028938141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AD9CD8-384A-4391-A8B8-2A70AA231F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{978F17AF-68BA-451D-BEE7-457FAAB5FFA7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D613ED0E-7CDF-43EB-B381-8E5D429FCF05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="243">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
@@ -71,694 +71,697 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1173,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320306E7-A738-41DE-B2A5-13F5149A07A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEE3B78-89E1-4A5C-B12F-E60521DEBB55}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,7 +1297,7 @@
         <v>501</v>
       </c>
       <c r="D4" s="7">
-        <v>396120</v>
+        <v>376808</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1309,7 +1312,7 @@
         <v>666</v>
       </c>
       <c r="I4" s="7">
-        <v>377541</v>
+        <v>344295</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1324,7 +1327,7 @@
         <v>1167</v>
       </c>
       <c r="N4" s="7">
-        <v>773661</v>
+        <v>721103</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1345,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>18492</v>
+        <v>16744</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1360,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2270</v>
+        <v>2129</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1375,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>20762</v>
+        <v>18873</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1396,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1411,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1426,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1231</v>
+        <v>1170</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1435,211 +1438,211 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2465</v>
+        <v>2326</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3161</v>
+        <v>2184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>5626</v>
+        <v>4509</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>10691</v>
+        <v>10223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>7494</v>
+        <v>6952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>18185</v>
+        <v>17176</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>5646</v>
+        <v>5214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1831</v>
+        <v>1678</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>7477</v>
+        <v>6892</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>96939</v>
+        <v>92975</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>78578</v>
+        <v>71594</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>175518</v>
+        <v>164569</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,51 +1654,51 @@
         <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>531154</v>
+        <v>505056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>826</v>
       </c>
       <c r="I11" s="7">
-        <v>471306</v>
+        <v>429237</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>1506</v>
       </c>
       <c r="N11" s="7">
-        <v>1002460</v>
+        <v>934293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1704,46 +1707,46 @@
         <v>1347</v>
       </c>
       <c r="D12" s="7">
-        <v>1369955</v>
+        <v>1324688</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>1912</v>
       </c>
       <c r="I12" s="7">
-        <v>1448261</v>
+        <v>1464723</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>3259</v>
       </c>
       <c r="N12" s="7">
-        <v>2818216</v>
+        <v>2789412</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,46 +1758,46 @@
         <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>151822</v>
+        <v>138694</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>46121</v>
+        <v>40723</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>197943</v>
+        <v>179418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,250 +1809,250 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3633</v>
+        <v>3066</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>4058</v>
+        <v>3630</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>7691</v>
+        <v>6696</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>62396</v>
+        <v>254669</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>7596</v>
+        <v>6904</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>69992</v>
+        <v>261573</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>90236</v>
+        <v>85527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>54870</v>
+        <v>105839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>163</v>
       </c>
       <c r="N16" s="7">
-        <v>145106</v>
+        <v>191365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>24022</v>
+        <v>22234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>8642</v>
+        <v>7993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>32664</v>
+        <v>30227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7">
         <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>219023</v>
+        <v>209799</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>245</v>
       </c>
       <c r="I18" s="7">
-        <v>160559</v>
+        <v>146596</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
       </c>
       <c r="N18" s="7">
-        <v>379582</v>
+        <v>356395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,51 +2064,51 @@
         <v>1874</v>
       </c>
       <c r="D19" s="7">
-        <v>1921088</v>
+        <v>2038676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>2316</v>
       </c>
       <c r="I19" s="7">
-        <v>1730106</v>
+        <v>1776409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>4190</v>
       </c>
       <c r="N19" s="7">
-        <v>3651194</v>
+        <v>3815085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2114,46 +2117,46 @@
         <v>390</v>
       </c>
       <c r="D20" s="7">
-        <v>385891</v>
+        <v>379952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>702</v>
       </c>
       <c r="I20" s="7">
-        <v>486077</v>
+        <v>456560</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1092</v>
       </c>
       <c r="N20" s="7">
-        <v>871967</v>
+        <v>836512</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,46 +2168,46 @@
         <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>96247</v>
+        <v>87576</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
       </c>
       <c r="I21" s="7">
-        <v>60304</v>
+        <v>52835</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
       </c>
       <c r="N21" s="7">
-        <v>156550</v>
+        <v>140411</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,250 +2219,250 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>12518</v>
+        <v>11997</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2061</v>
+        <v>1887</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>14579</v>
+        <v>13883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7">
         <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>17652</v>
+        <v>16187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>9260</v>
+        <v>8171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
       </c>
       <c r="N23" s="7">
-        <v>26912</v>
+        <v>24359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7">
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>21673</v>
+        <v>21074</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>20328</v>
+        <v>18156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>42001</v>
+        <v>39230</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>13409</v>
+        <v>12501</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>4845</v>
+        <v>4570</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>18254</v>
+        <v>17071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7">
         <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>78547</v>
+        <v>72565</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
       </c>
       <c r="I26" s="7">
-        <v>72068</v>
+        <v>65568</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
       </c>
       <c r="N26" s="7">
-        <v>150615</v>
+        <v>138133</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,46 +2474,46 @@
         <v>647</v>
       </c>
       <c r="D27" s="7">
-        <v>625938</v>
+        <v>601852</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="7">
         <v>943</v>
       </c>
       <c r="I27" s="7">
-        <v>654943</v>
+        <v>607747</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
         <v>1590</v>
       </c>
       <c r="N27" s="7">
-        <v>1280880</v>
+        <v>1209599</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,46 +2527,46 @@
         <v>2238</v>
       </c>
       <c r="D28" s="7">
-        <v>2151967</v>
+        <v>2081448</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>3280</v>
       </c>
       <c r="I28" s="7">
-        <v>2311878</v>
+        <v>2265578</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>5518</v>
       </c>
       <c r="N28" s="7">
-        <v>4463844</v>
+        <v>4347027</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,46 +2578,46 @@
         <v>279</v>
       </c>
       <c r="D29" s="7">
-        <v>266561</v>
+        <v>243015</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
       </c>
       <c r="I29" s="7">
-        <v>108695</v>
+        <v>95687</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>430</v>
       </c>
       <c r="N29" s="7">
-        <v>375255</v>
+        <v>338702</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,88 +2629,88 @@
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>16952</v>
+        <v>15827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>6550</v>
+        <v>5921</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
       </c>
       <c r="N30" s="7">
-        <v>23501</v>
+        <v>21749</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>33</v>
       </c>
       <c r="D31" s="7">
-        <v>82514</v>
+        <v>273182</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
       </c>
       <c r="I31" s="7">
-        <v>20017</v>
+        <v>17259</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M31" s="7">
         <v>61</v>
       </c>
       <c r="N31" s="7">
-        <v>102530</v>
+        <v>290441</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>217</v>
@@ -2722,13 +2725,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>145</v>
       </c>
       <c r="D32" s="7">
-        <v>122600</v>
+        <v>116824</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>220</v>
@@ -2743,133 +2746,133 @@
         <v>105</v>
       </c>
       <c r="I32" s="7">
-        <v>82692</v>
+        <v>130947</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>250</v>
       </c>
       <c r="N32" s="7">
-        <v>205292</v>
+        <v>247772</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7">
         <v>47</v>
       </c>
       <c r="D33" s="7">
-        <v>43077</v>
+        <v>39949</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
       </c>
       <c r="I33" s="7">
-        <v>15319</v>
+        <v>14241</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="M33" s="7">
         <v>71</v>
       </c>
       <c r="N33" s="7">
-        <v>58396</v>
+        <v>54190</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7">
         <v>441</v>
       </c>
       <c r="D34" s="7">
-        <v>394510</v>
+        <v>375339</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>486</v>
       </c>
       <c r="I34" s="7">
-        <v>311206</v>
+        <v>283759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>927</v>
       </c>
       <c r="N34" s="7">
-        <v>705716</v>
+        <v>659097</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,51 +2884,51 @@
         <v>3201</v>
       </c>
       <c r="D35" s="7">
-        <v>3078180</v>
+        <v>3145584</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="7">
         <v>4085</v>
       </c>
       <c r="I35" s="7">
-        <v>2856355</v>
+        <v>2813393</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="7">
         <v>7286</v>
       </c>
       <c r="N35" s="7">
-        <v>5934535</v>
+        <v>5958977</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
